--- a/Taller 2 - SE Optimizacion/T2_Optimización.xlsx
+++ b/Taller 2 - SE Optimizacion/T2_Optimización.xlsx
@@ -1,48 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ma_vargas73_uniandes_edu_co/Documents/Semestres/Monitorias/Herramientas Computacionales - Nelson/Talleres Nuevos/T2/T2 SE Optimizacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd.garciac1\Documents\GitHub\IMEC-2001-JuanGarcia\Taller 2 - SE Optimizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2718" documentId="8_{18D8E6BA-09CA-4B7F-B107-C4A9DE676C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FB4A2A7-F774-4D52-A714-A47800BA5979}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4EF7E0-B34F-4BB9-91C1-46354CB59436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{165F5127-6AFB-4F6B-8C4C-76065397AC5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{165F5127-6AFB-4F6B-8C4C-76065397AC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Hoja1!$B$11,Hoja1!$B$18</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Hoja1!$B$18</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Hoja1!$B$18</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Hoja1!$B$11</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Hoja1!$B$11</definedName>
+    <definedName name="solver_lhs0" localSheetId="0" hidden="1">Hoja1!$B$18</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Hoja1!$B$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Hoja1!$B$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Hoja1!$B$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Hoja1!$B$18</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Hoja1!$B$34</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel0" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">15</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">10</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">95</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">10</definedName>
+    <definedName name="solver_rhs0" localSheetId="0" hidden="1">Hoja1!$A$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Hoja1!$B$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Hoja1!$A$9</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Hoja1!$B$16</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Hoja1!$A$16</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -66,8 +71,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -75,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Distancias</t>
   </si>
@@ -168,6 +171,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>deg</t>
   </si>
 </sst>
 </file>
@@ -758,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636FFCF8-6402-484D-91C2-40667F260D51}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -780,8 +789,12 @@
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3" t="s">
         <v>17</v>
@@ -794,8 +807,12 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" s="17"/>
       <c r="G3" s="3" t="s">
         <v>18</v>
@@ -808,8 +825,13 @@
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="17">
+        <f>B2*SIN(C22)+SIN(B12)*B3</f>
+        <v>2.9771971412496563</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="3" t="s">
         <v>19</v>
@@ -863,36 +885,50 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="16">
+        <v>10</v>
+      </c>
+      <c r="B9" s="16">
+        <v>95</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f>RADIANS(A9)</f>
-        <v>0</v>
+        <v>0.17453292519943295</v>
       </c>
       <c r="B10" s="1">
         <f>RADIANS(B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="16"/>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="15">
+        <v>95</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <f>RADIANS(B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="16"/>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -920,34 +956,48 @@
       </c>
     </row>
     <row r="16" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="16">
+        <v>45</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f>RADIANS(A16)</f>
-        <v>0</v>
+        <v>0.17453292519943295</v>
       </c>
       <c r="B17" s="1">
         <f>RADIANS(B16)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="16"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="15">
+        <v>10.000002621822242</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <f>RADIANS(B18)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="16"/>
+        <v>0.17453297095886347</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
@@ -961,10 +1011,13 @@
       </c>
     </row>
     <row r="22" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
+      <c r="B22" s="13">
+        <f>90-B18</f>
+        <v>79.999997378177753</v>
+      </c>
       <c r="C22" s="9">
         <f>RADIANS(B22)</f>
-        <v>0</v>
+        <v>1.3962633558360331</v>
       </c>
     </row>
     <row r="24" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -978,23 +1031,28 @@
       <c r="A25" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
       <c r="C25" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
-      <c r="B26" s="17"/>
+      <c r="B26" s="17">
+        <f>COS(C22)+SIN(C22)*_xlfn.COT(B12)</f>
+        <v>8.7488709285354405E-2</v>
+      </c>
       <c r="C26" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
-      <c r="B27" s="9" t="e">
+      <c r="B27" s="9">
         <f>B25/B26</f>
-        <v>#DIV/0!</v>
+        <v>11.430046324473549</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>30</v>
@@ -1016,7 +1074,9 @@
       <c r="A30" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="18">
+        <v>10</v>
+      </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
       </c>
@@ -1025,7 +1085,10 @@
       <c r="A31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="17">
+        <f>B30*B27</f>
+        <v>114.3004632447355</v>
+      </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
@@ -1046,7 +1109,10 @@
       <c r="A34" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="17">
+        <f>B31/B3</f>
+        <v>57.150231622367748</v>
+      </c>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>

--- a/Taller 2 - SE Optimizacion/T2_Optimización.xlsx
+++ b/Taller 2 - SE Optimizacion/T2_Optimización.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd.garciac1\Documents\GitHub\IMEC-2001-JuanGarcia\Taller 2 - SE Optimizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4EF7E0-B34F-4BB9-91C1-46354CB59436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0D8D04-D4B7-4A42-8301-D1245070F1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{165F5127-6AFB-4F6B-8C4C-76065397AC5F}"/>
   </bookViews>

--- a/Taller 2 - SE Optimizacion/T2_Optimización.xlsx
+++ b/Taller 2 - SE Optimizacion/T2_Optimización.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd.garciac1\Documents\GitHub\IMEC-2001-JuanGarcia\Taller 2 - SE Optimizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0D8D04-D4B7-4A42-8301-D1245070F1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE791B1-632F-4375-95C1-0974F1B2E22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{165F5127-6AFB-4F6B-8C4C-76065397AC5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{165F5127-6AFB-4F6B-8C4C-76065397AC5F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="PUNTO 1" sheetId="1" r:id="rId1"/>
+    <sheet name="PUNTO 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Hoja1!$B$11,Hoja1!$B$18</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'PUNTO 1'!$B$11,'PUNTO 1'!$B$18</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs0" localSheetId="0" hidden="1">Hoja1!$B$18</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Hoja1!$B$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Hoja1!$B$11</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Hoja1!$B$18</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Hoja1!$B$18</definedName>
+    <definedName name="solver_lhs0" localSheetId="0" hidden="1">'PUNTO 1'!$B$18</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'PUNTO 1'!$B$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'PUNTO 1'!$B$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'PUNTO 1'!$B$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'PUNTO 1'!$B$18</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -35,7 +36,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Hoja1!$B$34</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'PUNTO 1'!$B$34</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel0" localSheetId="0" hidden="1">3</definedName>
@@ -43,11 +44,11 @@
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs0" localSheetId="0" hidden="1">Hoja1!$A$17</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Hoja1!$B$9</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Hoja1!$A$9</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Hoja1!$B$16</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Hoja1!$A$16</definedName>
+    <definedName name="solver_rhs0" localSheetId="0" hidden="1">'PUNTO 1'!$A$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'PUNTO 1'!$B$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'PUNTO 1'!$A$9</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'PUNTO 1'!$B$16</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'PUNTO 1'!$A$16</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
   <si>
     <t>Distancias</t>
   </si>
@@ -767,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636FFCF8-6402-484D-91C2-40667F260D51}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1132,4 +1133,347 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A102E4-142D-4E81-B44B-15C84DC078BD}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>10</v>
+      </c>
+      <c r="B9" s="16">
+        <v>95</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f>RADIANS(A9)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="B10" s="1">
+        <f>RADIANS(B9)</f>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="15">
+        <v>95</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9">
+        <f>RADIANS(B11)</f>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="16">
+        <v>45</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f>RADIANS(A16)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="B17" s="1">
+        <f>RADIANS(B16)</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="15">
+        <v>10.000002621822242</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="9">
+        <f>RADIANS(B18)</f>
+        <v>0.17453297095886347</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="13">
+        <f>90-B18</f>
+        <v>79.999997378177753</v>
+      </c>
+      <c r="C22" s="9">
+        <f>RADIANS(B22)</f>
+        <v>1.3962633558360331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="17">
+        <f>COS(C22)+SIN(C22)*_xlfn.COT(B12)</f>
+        <v>8.7488709285354405E-2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
+      <c r="B27" s="9">
+        <f>B25/B26</f>
+        <v>11.430046324473549</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="18">
+        <v>10</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="17">
+        <f>B30*B27</f>
+        <v>114.3004632447355</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="17">
+        <f>B31/B3</f>
+        <v>57.150231622367748</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:A27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Taller 2 - SE Optimizacion/T2_Optimización.xlsx
+++ b/Taller 2 - SE Optimizacion/T2_Optimización.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd.garciac1\Documents\GitHub\IMEC-2001-JuanGarcia\Taller 2 - SE Optimizacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juand\OneDrive\Documentos\GitHub\IMEC-2001-JuanGarcia\Taller 2 - SE Optimizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE791B1-632F-4375-95C1-0974F1B2E22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8ACC36-4188-4CB0-9BF6-C0C1E676CEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{165F5127-6AFB-4F6B-8C4C-76065397AC5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{165F5127-6AFB-4F6B-8C4C-76065397AC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="PUNTO 1" sheetId="1" r:id="rId1"/>
